--- a/form_reporting_templates/Form-3AA-multiple.xlsx
+++ b/form_reporting_templates/Form-3AA-multiple.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\dev\git\BitBucket workspaces\IOTC-ws\R libs\workflow\forms\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\dev\git\BitBucket workspaces\IOTC-ws\Data dissemination\iotc-reference-forms\form_reporting_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A015E76-7399-407E-A81A-B7F72FD0D63B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73989EC3-16D9-483E-B9A6-71126802E67C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="dV4x4UN/0VvyFBtyDoIunEcfcYZ4v5uYvk1jvD8vzzLvThv6/Y3drfR5cofF0NFHWy380GJVRhDwCQZMDGpoHQ==" workbookSaltValue="zVm6vMVUmkQ3Bwhy95qLKQ==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{742ED9EC-8AD9-42B2-9B99-191B35B67816}"/>
@@ -120,24 +120,15 @@
     <t>Raising</t>
   </si>
   <si>
-    <t>IOTC form 3-AA | metadata</t>
-  </si>
-  <si>
     <t>Fishery</t>
   </si>
   <si>
-    <t>IOTC form 3-AA | data</t>
-  </si>
-  <si>
     <t>aFOB</t>
   </si>
   <si>
     <t>Type of fate</t>
   </si>
   <si>
-    <t>3-AA-multiple</t>
-  </si>
-  <si>
     <t>Month</t>
   </si>
   <si>
@@ -145,6 +136,15 @@
   </si>
   <si>
     <t>Finalisation date</t>
+  </si>
+  <si>
+    <t>IOTC Form 3AA | data</t>
+  </si>
+  <si>
+    <t>IOTC Form 3AA | metadata</t>
+  </si>
+  <si>
+    <t>3AA-multiple</t>
   </si>
 </sst>
 </file>
@@ -1420,7 +1420,7 @@
     <row r="1" spans="2:8" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B2" s="89" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C2" s="90"/>
       <c r="D2" s="90"/>
@@ -1444,7 +1444,7 @@
         <v>12</v>
       </c>
       <c r="D4" s="34" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E4" s="35"/>
       <c r="F4" s="33" t="s">
@@ -1513,12 +1513,12 @@
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10" s="21"/>
       <c r="C10" s="22" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="24"/>
       <c r="F10" s="24" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="20"/>
@@ -1535,7 +1535,7 @@
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B12" s="21"/>
       <c r="C12" s="22" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="24"/>
@@ -1735,7 +1735,7 @@
       <c r="D32" s="2"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="shkbdKnssuQkyVbfIKXIrigQTvUih7WMy23BHw+ZjumpRSoufEC+zzLwe6yNcRbnAuj1EVmhuBJjB02dHJQr1A==" saltValue="WAN9mFyEOIuw3A3qQlc2Wg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="W8YjA+LYP6o3MX0eFA5GrcwT6FkM3vhc1iV2ADSMsmvrXmfl1GOU9KlxyOALiPU9aK5p+Kn3BpNKNV04q+XS2Q==" saltValue="JYHZzECVrlpDmSs6ftWFfw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="4">
     <mergeCell ref="C30:G30"/>
     <mergeCell ref="C8:D8"/>
@@ -1897,7 +1897,7 @@
     </row>
     <row r="2" spans="2:110" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="89" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C2" s="90"/>
       <c r="D2" s="90"/>
@@ -2244,7 +2244,7 @@
       <c r="H5" s="56"/>
       <c r="I5" s="56"/>
       <c r="J5" s="77" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="K5" s="63"/>
       <c r="L5" s="64"/>
@@ -2356,7 +2356,7 @@
       <c r="E6" s="101"/>
       <c r="F6" s="101"/>
       <c r="G6" s="100" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H6" s="101"/>
       <c r="I6" s="102"/>
@@ -2466,13 +2466,13 @@
     </row>
     <row r="7" spans="2:110" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="44" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C7" s="80" t="s">
         <v>17</v>
       </c>
       <c r="D7" s="84" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E7" s="45" t="s">
         <v>19</v>
@@ -3195,7 +3195,7 @@
       <c r="I57" s="43"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="9wXt6ZkOZtcMHkM5cJpJQI2A9IZ8eF/p6gK+qwfzFqTN5jghKC31bL4Whi4skO+btaUGlUcnq2va7PAiTzMo3A==" saltValue="thkYLB6rwFdR6gW9nxc9Zw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="IhkS4ZZGrC0apCJlXugchWySxz5yhMBN2Co7XzWa9fui5GUbL0KJ3JyWZ/kH/6y3Zd2Pz/UGEC76hXyqb69vrA==" saltValue="2IsUyBOe93s6rv3V5cnssw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="4">
     <mergeCell ref="K3:DF3"/>
     <mergeCell ref="B2:I3"/>

--- a/form_reporting_templates/Form-3AA-multiple.xlsx
+++ b/form_reporting_templates/Form-3AA-multiple.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\dev\git\BitBucket workspaces\IOTC-ws\Data dissemination\iotc-reference-forms\form_reporting_templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\echassot\Desktop\iotc-reference-forms\form_reporting_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73989EC3-16D9-483E-B9A6-71126802E67C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30DADD8B-D770-42D8-8EFC-771B18E49876}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="dV4x4UN/0VvyFBtyDoIunEcfcYZ4v5uYvk1jvD8vzzLvThv6/Y3drfR5cofF0NFHWy380GJVRhDwCQZMDGpoHQ==" workbookSaltValue="zVm6vMVUmkQ3Bwhy95qLKQ==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{742ED9EC-8AD9-42B2-9B99-191B35B67816}"/>
@@ -54,9 +54,6 @@
     <t>General information</t>
   </si>
   <si>
-    <t>Flag country</t>
-  </si>
-  <si>
     <t>Reporting year</t>
   </si>
   <si>
@@ -145,6 +142,9 @@
   </si>
   <si>
     <t>3AA-multiple</t>
+  </si>
+  <si>
+    <t>Flag state</t>
   </si>
 </sst>
 </file>
@@ -1420,7 +1420,7 @@
     <row r="1" spans="2:8" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B2" s="89" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C2" s="90"/>
       <c r="D2" s="90"/>
@@ -1441,17 +1441,17 @@
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" s="32"/>
       <c r="C4" s="33" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D4" s="34" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E4" s="35"/>
       <c r="F4" s="33" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G4" s="36" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H4" s="37"/>
     </row>
@@ -1467,7 +1467,7 @@
     <row r="6" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B6" s="21"/>
       <c r="C6" s="28" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D6" s="24"/>
       <c r="E6" s="24"/>
@@ -1513,12 +1513,12 @@
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10" s="21"/>
       <c r="C10" s="22" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="24"/>
       <c r="F10" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="20"/>
@@ -1535,7 +1535,7 @@
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B12" s="21"/>
       <c r="C12" s="22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="24"/>
@@ -1546,7 +1546,7 @@
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B13" s="21"/>
       <c r="C13" s="22" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="24"/>
@@ -1595,7 +1595,7 @@
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" s="21"/>
       <c r="C18" s="22" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D18" s="5"/>
       <c r="E18" s="24"/>
@@ -1606,7 +1606,7 @@
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" s="21"/>
       <c r="C19" s="29" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D19" s="5"/>
       <c r="E19" s="24"/>
@@ -1617,7 +1617,7 @@
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" s="21"/>
       <c r="C20" s="29" t="s">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="D20" s="5"/>
       <c r="E20" s="24"/>
@@ -1646,7 +1646,7 @@
     <row r="23" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B23" s="21"/>
       <c r="C23" s="28" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D23" s="30"/>
       <c r="E23" s="24"/>
@@ -1666,7 +1666,7 @@
     <row r="25" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B25" s="21"/>
       <c r="C25" s="29" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D25" s="5"/>
       <c r="E25" s="24"/>
@@ -1695,7 +1695,7 @@
     <row r="28" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B28" s="21"/>
       <c r="C28" s="28" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D28" s="23"/>
       <c r="E28" s="24"/>
@@ -1735,7 +1735,7 @@
       <c r="D32" s="2"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="W8YjA+LYP6o3MX0eFA5GrcwT6FkM3vhc1iV2ADSMsmvrXmfl1GOU9KlxyOALiPU9aK5p+Kn3BpNKNV04q+XS2Q==" saltValue="JYHZzECVrlpDmSs6ftWFfw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="tmsOL8iF6Evf8epQJB+gk6Hsi/NyaiY0hCXDD/LPDzaxuq237rLEp7TFy1CAryyrVyMKys7Y7WfJH7bkJe33XA==" saltValue="MjF/7AI+H4NTTDWKJzfPaA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="4">
     <mergeCell ref="C30:G30"/>
     <mergeCell ref="C8:D8"/>
@@ -1749,7 +1749,7 @@
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="C19" r:id="rId1" location="entities" xr:uid="{145A36E7-23E2-4F23-9423-3ABF5B1644A9}"/>
-    <hyperlink ref="C20" r:id="rId2" location="countries" xr:uid="{D830AF7F-6DD6-4CCC-B4E3-A0AB89AFD734}"/>
+    <hyperlink ref="C20" r:id="rId2" location="countries" display="Flag country" xr:uid="{D830AF7F-6DD6-4CCC-B4E3-A0AB89AFD734}"/>
     <hyperlink ref="C25" r:id="rId3" location="types" xr:uid="{D5D73A23-873B-4484-A869-D712A7A31856}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1897,7 +1897,7 @@
     </row>
     <row r="2" spans="2:110" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="89" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C2" s="90"/>
       <c r="D2" s="90"/>
@@ -2019,7 +2019,7 @@
       <c r="I3" s="99"/>
       <c r="J3" s="57"/>
       <c r="K3" s="95" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L3" s="96"/>
       <c r="M3" s="96"/>
@@ -2131,7 +2131,7 @@
       <c r="H4" s="56"/>
       <c r="I4" s="56"/>
       <c r="J4" s="76" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K4" s="60"/>
       <c r="L4" s="61"/>
@@ -2244,7 +2244,7 @@
       <c r="H5" s="56"/>
       <c r="I5" s="56"/>
       <c r="J5" s="77" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K5" s="63"/>
       <c r="L5" s="64"/>
@@ -2349,19 +2349,19 @@
     </row>
     <row r="6" spans="2:110" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="100" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C6" s="101"/>
       <c r="D6" s="101"/>
       <c r="E6" s="101"/>
       <c r="F6" s="101"/>
       <c r="G6" s="100" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H6" s="101"/>
       <c r="I6" s="102"/>
       <c r="J6" s="75" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K6" s="63"/>
       <c r="L6" s="64"/>
@@ -2466,31 +2466,31 @@
     </row>
     <row r="7" spans="2:110" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="44" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C7" s="80" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="84" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="45" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="84" t="s">
-        <v>27</v>
-      </c>
-      <c r="E7" s="45" t="s">
+      <c r="G7" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="F7" s="46" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7" s="47" t="s">
+      <c r="H7" s="79" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="79" t="s">
+      <c r="I7" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="I7" s="52" t="s">
+      <c r="J7" s="78" t="s">
         <v>22</v>
-      </c>
-      <c r="J7" s="78" t="s">
-        <v>23</v>
       </c>
       <c r="K7" s="66"/>
       <c r="L7" s="67"/>
